--- a/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
+++ b/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hbap.adroot.hsbc\HK\HASE\28062201\Fraud_Ops_FIM_File_Sharing\HASE case\Gen AI\Upload to sharepoint\Batch 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6C5B75C-CBD6-476D-86F1-7A5F64DCD204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8AB57-42F8-488B-B9CA-A2B4B4F928CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="-16455" windowWidth="29040" windowHeight="15840" tabRatio="706" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" tabRatio="706" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -2454,7 +2454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2555,7 +2555,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2574,6 +2574,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2589,7 +2595,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2610,30 +2616,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2662,19 +2653,17 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3147,36 +3136,36 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="41"/>
+      <c r="C1" s="33"/>
       <c r="D1" t="s">
         <v>99</v>
       </c>
@@ -3184,8 +3173,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="40"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3238,7 +3227,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="90">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -3290,7 +3279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="90">
+    <row r="4" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -3343,7 +3332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="45">
+    <row r="5" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -3396,7 +3385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45.6">
+    <row r="6" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -3436,7 +3425,7 @@
       <c r="M6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="17" t="s">
         <v>420</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -3452,7 +3441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45.6">
+    <row r="7" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -3465,7 +3454,7 @@
       <c r="D7" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="18">
         <v>45663</v>
       </c>
       <c r="F7" t="s">
@@ -3489,7 +3478,7 @@
       <c r="M7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="17" t="s">
         <v>424</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -3502,143 +3491,143 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
@@ -3682,29 +3671,29 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" t="s">
         <v>294</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -3720,7 +3709,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3734,7 +3723,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23</v>
       </c>
@@ -3760,7 +3749,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -3786,7 +3775,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -3812,7 +3801,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
@@ -3838,7 +3827,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
@@ -3864,7 +3853,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
@@ -3890,11 +3879,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9">
@@ -3916,11 +3905,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10">
@@ -3942,11 +3931,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
@@ -3968,11 +3957,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>46</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12">
@@ -3994,14 +3983,14 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46</v>
       </c>
-      <c r="B13" s="25">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>439</v>
       </c>
       <c r="D13" t="s">
@@ -4020,11 +4009,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14">
@@ -4046,11 +4035,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>26</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15">
@@ -4069,11 +4058,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16">
@@ -4095,11 +4084,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17">
@@ -4121,11 +4110,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>27</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18">
@@ -4147,11 +4136,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19">
@@ -4173,11 +4162,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20">
@@ -4199,11 +4188,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>27</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21">
@@ -4225,11 +4214,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>47</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22">
@@ -4251,11 +4240,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23">
@@ -4274,11 +4263,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24">
@@ -4297,11 +4286,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25">
@@ -4323,11 +4312,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26">
@@ -4366,78 +4355,78 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="112.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="91.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="91.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="97" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="41" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="40"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4520,7 +4509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -4606,7 +4595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -4682,14 +4671,14 @@
       <c r="Z4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AB4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -4775,7 +4764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -4830,13 +4819,13 @@
       <c r="R6" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="12">
         <v>13</v>
       </c>
       <c r="T6" t="s">
         <v>69</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="12">
         <v>2025</v>
       </c>
       <c r="V6" t="s">
@@ -4858,7 +4847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -4895,7 +4884,7 @@
       <c r="L7" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="22" t="s">
         <v>496</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -4913,13 +4902,13 @@
       <c r="R7" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <v>21</v>
       </c>
       <c r="T7" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <v>2025</v>
       </c>
       <c r="V7" t="s">
@@ -4931,7 +4920,7 @@
       <c r="X7" t="s">
         <v>66</v>
       </c>
-      <c r="Y7" s="31" t="s">
+      <c r="Y7" s="22" t="s">
         <v>496</v>
       </c>
       <c r="Z7" t="s">
@@ -4941,7 +4930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -4960,7 +4949,7 @@
       <c r="F8" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>502</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -4996,13 +4985,13 @@
       <c r="R8" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <v>6</v>
       </c>
       <c r="T8" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="12">
         <v>2025</v>
       </c>
       <c r="V8" t="s">
@@ -5024,7 +5013,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -5079,13 +5068,13 @@
       <c r="R9" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="12">
         <v>19</v>
       </c>
       <c r="T9" t="s">
         <v>70</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="12">
         <v>2025</v>
       </c>
       <c r="V9" t="s">
@@ -5107,7 +5096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60">
+    <row r="10" spans="1:28" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -5162,13 +5151,13 @@
       <c r="R10" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="12">
         <v>10</v>
       </c>
       <c r="T10" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="12">
         <v>2024</v>
       </c>
       <c r="V10" t="s">
@@ -5190,7 +5179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -5230,7 +5219,7 @@
       <c r="M11" t="s">
         <v>302</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="29" t="s">
         <v>616</v>
       </c>
       <c r="O11" t="s">
@@ -5276,7 +5265,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>633</v>
       </c>
@@ -5313,7 +5302,7 @@
       <c r="L12" t="s">
         <v>677</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="22" t="s">
         <v>496</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -5349,7 +5338,7 @@
       <c r="X12" t="s">
         <v>66</v>
       </c>
-      <c r="Y12" s="31" t="s">
+      <c r="Y12" s="22" t="s">
         <v>496</v>
       </c>
       <c r="Z12" t="s">
@@ -5359,7 +5348,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>633</v>
       </c>
@@ -5439,7 +5428,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>633</v>
       </c>
@@ -5476,7 +5465,7 @@
       <c r="L14" t="s">
         <v>323</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="22" t="s">
         <v>496</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -5512,7 +5501,7 @@
       <c r="X14" t="s">
         <v>66</v>
       </c>
-      <c r="Y14" s="31" t="s">
+      <c r="Y14" s="22" t="s">
         <v>496</v>
       </c>
       <c r="Z14" t="s">
@@ -5522,115 +5511,115 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
@@ -5717,109 +5706,109 @@
       <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="5" width="33.26953125" customWidth="1"/>
-    <col min="6" max="6" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="6" max="6" width="35.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="43.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41" t="s">
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-    </row>
-    <row r="2" spans="1:44">
-      <c r="A2" s="40"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5950,7 +5939,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="45">
+    <row r="3" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -6018,7 +6007,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -6031,7 +6020,7 @@
       <c r="D4" t="s">
         <v>305</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -6067,7 +6056,7 @@
       <c r="S4" t="s">
         <v>204</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" t="s">
         <v>337</v>
       </c>
       <c r="X4" s="2"/>
@@ -6075,7 +6064,7 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -6088,7 +6077,7 @@
       <c r="D5" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="16" t="s">
         <v>344</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -6100,16 +6089,16 @@
       <c r="H5" t="s">
         <v>332</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" t="s">
         <v>333</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" t="s">
         <v>334</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
       <c r="N5" t="s">
@@ -6124,7 +6113,7 @@
       <c r="S5" t="s">
         <v>191</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" t="s">
         <v>338</v>
       </c>
       <c r="X5" s="2"/>
@@ -6132,7 +6121,7 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -6145,7 +6134,7 @@
       <c r="D6" t="s">
         <v>305</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -6160,10 +6149,10 @@
       <c r="I6" t="s">
         <v>307</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" t="s">
         <v>191</v>
       </c>
       <c r="L6" t="s">
@@ -6181,7 +6170,7 @@
       <c r="S6" t="s">
         <v>204</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" t="s">
         <v>339</v>
       </c>
       <c r="X6" s="2"/>
@@ -6189,7 +6178,7 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>342</v>
       </c>
@@ -6202,7 +6191,7 @@
       <c r="D7" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>344</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -6214,13 +6203,13 @@
       <c r="H7" t="s">
         <v>345</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" t="s">
         <v>333</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" t="s">
         <v>334</v>
       </c>
       <c r="L7" t="s">
@@ -6238,7 +6227,7 @@
       <c r="S7" t="s">
         <v>204</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" t="s">
         <v>346</v>
       </c>
       <c r="X7" s="2"/>
@@ -6246,7 +6235,7 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -6259,7 +6248,7 @@
       <c r="D8" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -6295,7 +6284,7 @@
       <c r="S8" t="s">
         <v>204</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" t="s">
         <v>411</v>
       </c>
       <c r="X8" s="2"/>
@@ -6309,7 +6298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -6322,7 +6311,7 @@
       <c r="D9" t="s">
         <v>305</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -6358,7 +6347,7 @@
       <c r="S9" t="s">
         <v>204</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" t="s">
         <v>408</v>
       </c>
       <c r="V9" t="s">
@@ -6375,7 +6364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -6388,7 +6377,7 @@
       <c r="D10" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -6424,7 +6413,7 @@
       <c r="S10" t="s">
         <v>204</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="T10" t="s">
         <v>366</v>
       </c>
       <c r="V10" t="s">
@@ -6441,7 +6430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -6454,7 +6443,7 @@
       <c r="D11" t="s">
         <v>305</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -6490,7 +6479,7 @@
       <c r="S11" t="s">
         <v>204</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" t="s">
         <v>409</v>
       </c>
       <c r="V11" t="s">
@@ -6507,7 +6496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -6520,7 +6509,7 @@
       <c r="D12" t="s">
         <v>305</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -6556,7 +6545,7 @@
       <c r="S12" t="s">
         <v>204</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" t="s">
         <v>410</v>
       </c>
       <c r="V12" t="s">
@@ -6573,7 +6562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -6586,7 +6575,7 @@
       <c r="D13" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -6622,7 +6611,7 @@
       <c r="S13" t="s">
         <v>204</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="T13" t="s">
         <v>390</v>
       </c>
       <c r="V13" t="s">
@@ -6639,7 +6628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -6652,7 +6641,7 @@
       <c r="D14" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -6688,7 +6677,7 @@
       <c r="S14" t="s">
         <v>204</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="T14" t="s">
         <v>413</v>
       </c>
       <c r="V14" t="s">
@@ -6705,7 +6694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -6718,7 +6707,7 @@
       <c r="D15" t="s">
         <v>305</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -6754,7 +6743,7 @@
       <c r="S15" t="s">
         <v>204</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" t="s">
         <v>391</v>
       </c>
       <c r="V15" t="s">
@@ -6771,7 +6760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -6784,7 +6773,7 @@
       <c r="D16" t="s">
         <v>305</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -6820,7 +6809,7 @@
       <c r="S16" t="s">
         <v>204</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="T16" t="s">
         <v>414</v>
       </c>
       <c r="V16" t="s">
@@ -6837,7 +6826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="20.399999999999999">
+    <row r="17" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -6850,7 +6839,7 @@
       <c r="D17" t="s">
         <v>508</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -6886,10 +6875,10 @@
       <c r="S17" t="s">
         <v>204</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="T17" t="s">
         <v>511</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="U17" t="s">
         <v>512</v>
       </c>
       <c r="V17" t="s">
@@ -6906,7 +6895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="24.6">
+    <row r="18" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -6919,7 +6908,7 @@
       <c r="D18" t="s">
         <v>513</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -6955,10 +6944,10 @@
       <c r="S18" t="s">
         <v>204</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="T18" t="s">
         <v>516</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="U18" t="s">
         <v>512</v>
       </c>
       <c r="V18" t="s">
@@ -6975,7 +6964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -6988,7 +6977,7 @@
       <c r="D19" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -7024,10 +7013,10 @@
       <c r="S19" t="s">
         <v>204</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="T19" t="s">
         <v>521</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="U19" t="s">
         <v>512</v>
       </c>
       <c r="V19" t="s">
@@ -7044,7 +7033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="20.399999999999999">
+    <row r="20" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -7057,7 +7046,7 @@
       <c r="D20" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -7093,10 +7082,10 @@
       <c r="S20" t="s">
         <v>204</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="T20" t="s">
         <v>525</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="U20" t="s">
         <v>512</v>
       </c>
       <c r="V20" t="s">
@@ -7113,7 +7102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -7126,7 +7115,7 @@
       <c r="D21" t="s">
         <v>524</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -7162,10 +7151,10 @@
       <c r="S21" t="s">
         <v>204</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="T21" t="s">
         <v>529</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="U21" t="s">
         <v>512</v>
       </c>
       <c r="V21" t="s">
@@ -7182,7 +7171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -7195,7 +7184,7 @@
       <c r="D22" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -7228,10 +7217,10 @@
       <c r="S22" t="s">
         <v>204</v>
       </c>
-      <c r="T22" s="12" t="s">
+      <c r="T22" t="s">
         <v>530</v>
       </c>
-      <c r="U22" s="12" t="s">
+      <c r="U22" t="s">
         <v>512</v>
       </c>
       <c r="V22" t="s">
@@ -7248,7 +7237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -7261,7 +7250,7 @@
       <c r="D23" t="s">
         <v>508</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -7297,10 +7286,10 @@
       <c r="S23" t="s">
         <v>204</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T23" t="s">
         <v>586</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="U23" t="s">
         <v>512</v>
       </c>
       <c r="V23" t="s">
@@ -7317,7 +7306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -7330,7 +7319,7 @@
       <c r="D24" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -7366,10 +7355,10 @@
       <c r="S24" t="s">
         <v>204</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="T24" t="s">
         <v>587</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="U24" t="s">
         <v>512</v>
       </c>
       <c r="V24" t="s">
@@ -7386,7 +7375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -7399,7 +7388,7 @@
       <c r="D25" t="s">
         <v>513</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -7438,10 +7427,10 @@
       <c r="S25" t="s">
         <v>204</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="T25" t="s">
         <v>591</v>
       </c>
-      <c r="U25" s="12" t="s">
+      <c r="U25" t="s">
         <v>512</v>
       </c>
       <c r="V25" t="s">
@@ -7458,7 +7447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -7471,7 +7460,7 @@
       <c r="D26" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -7524,7 +7513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -7537,7 +7526,7 @@
       <c r="D27" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -7573,10 +7562,10 @@
       <c r="S27" t="s">
         <v>204</v>
       </c>
-      <c r="T27" s="12" t="s">
+      <c r="T27" t="s">
         <v>609</v>
       </c>
-      <c r="U27" s="12" t="s">
+      <c r="U27" t="s">
         <v>512</v>
       </c>
       <c r="V27" t="s">
@@ -7593,7 +7582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -7606,7 +7595,7 @@
       <c r="D28" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -7642,10 +7631,10 @@
       <c r="S28" t="s">
         <v>204</v>
       </c>
-      <c r="T28" s="12" t="s">
+      <c r="T28" t="s">
         <v>610</v>
       </c>
-      <c r="U28" s="12" t="s">
+      <c r="U28" t="s">
         <v>512</v>
       </c>
       <c r="V28" t="s">
@@ -7662,7 +7651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -7675,7 +7664,7 @@
       <c r="D29" t="s">
         <v>305</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="16" t="s">
         <v>343</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -7711,7 +7700,7 @@
       <c r="S29" t="s">
         <v>619</v>
       </c>
-      <c r="T29" s="12" t="s">
+      <c r="T29" t="s">
         <v>620</v>
       </c>
       <c r="X29" s="2"/>
@@ -7725,7 +7714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>320</v>
       </c>
@@ -7771,10 +7760,10 @@
       <c r="S30" t="s">
         <v>204</v>
       </c>
-      <c r="T30" s="12" t="s">
+      <c r="T30" t="s">
         <v>693</v>
       </c>
-      <c r="U30" s="12" t="s">
+      <c r="U30" t="s">
         <v>512</v>
       </c>
       <c r="V30" t="s">
@@ -7791,7 +7780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="20.399999999999999">
+    <row r="31" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>320</v>
       </c>
@@ -7837,10 +7826,10 @@
       <c r="S31" t="s">
         <v>204</v>
       </c>
-      <c r="T31" s="12" t="s">
+      <c r="T31" t="s">
         <v>694</v>
       </c>
-      <c r="U31" s="12" t="s">
+      <c r="U31" t="s">
         <v>512</v>
       </c>
       <c r="V31" t="s">
@@ -7857,7 +7846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>320</v>
       </c>
@@ -7903,10 +7892,10 @@
       <c r="S32" t="s">
         <v>204</v>
       </c>
-      <c r="T32" s="12" t="s">
+      <c r="T32" t="s">
         <v>695</v>
       </c>
-      <c r="U32" s="12" t="s">
+      <c r="U32" t="s">
         <v>512</v>
       </c>
       <c r="V32" t="s">
@@ -7923,7 +7912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>320</v>
       </c>
@@ -7969,10 +7958,10 @@
       <c r="S33" t="s">
         <v>204</v>
       </c>
-      <c r="T33" s="12" t="s">
+      <c r="T33" t="s">
         <v>696</v>
       </c>
-      <c r="U33" s="12" t="s">
+      <c r="U33" t="s">
         <v>512</v>
       </c>
       <c r="V33" t="s">
@@ -7989,7 +7978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="20.399999999999999">
+    <row r="34" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>320</v>
       </c>
@@ -8035,10 +8024,10 @@
       <c r="S34" t="s">
         <v>204</v>
       </c>
-      <c r="T34" s="12" t="s">
+      <c r="T34" t="s">
         <v>697</v>
       </c>
-      <c r="U34" s="12" t="s">
+      <c r="U34" t="s">
         <v>512</v>
       </c>
       <c r="V34" t="s">
@@ -8055,7 +8044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="X35" s="2"/>
@@ -8063,7 +8052,7 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="X36" s="2"/>
@@ -8071,7 +8060,7 @@
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="X37" s="2"/>
@@ -8079,7 +8068,7 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -8090,7 +8079,7 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -8101,7 +8090,7 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -8112,7 +8101,7 @@
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -8123,7 +8112,7 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -8134,7 +8123,7 @@
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -8277,40 +8266,40 @@
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>291</v>
       </c>
       <c r="D1" t="s">
@@ -8377,14 +8366,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -8407,7 +8396,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -8431,14 +8420,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -8458,14 +8447,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
         <v>7</v>
       </c>
       <c r="D5" t="s">
@@ -8478,21 +8467,21 @@
         <v>341</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="N5" s="15" t="s">
+      <c r="N5" t="s">
         <v>60</v>
       </c>
       <c r="P5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
         <v>8</v>
       </c>
       <c r="D6" t="s">
@@ -8512,14 +8501,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
-      <c r="B7" s="14">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
         <v>9</v>
       </c>
       <c r="D7" t="s">
@@ -8539,14 +8528,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
         <v>11</v>
       </c>
       <c r="D8" t="s">
@@ -8566,14 +8555,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
         <v>2</v>
       </c>
       <c r="D9" t="s">
@@ -8586,21 +8575,21 @@
         <v>341</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="N9" s="15" t="s">
+      <c r="N9" t="s">
         <v>60</v>
       </c>
       <c r="P9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
         <v>3</v>
       </c>
       <c r="D10" t="s">
@@ -8613,21 +8602,21 @@
         <v>341</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="N10" s="15" t="s">
+      <c r="N10" t="s">
         <v>60</v>
       </c>
       <c r="P10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>31</v>
       </c>
-      <c r="B11" s="14">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
         <v>4</v>
       </c>
       <c r="D11" t="s">
@@ -8640,21 +8629,21 @@
         <v>341</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="N11" s="15" t="s">
+      <c r="N11" t="s">
         <v>66</v>
       </c>
       <c r="P11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>31</v>
       </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
         <v>5</v>
       </c>
       <c r="D12" t="s">
@@ -8667,21 +8656,21 @@
         <v>341</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="N12" s="15" t="s">
+      <c r="N12" t="s">
         <v>66</v>
       </c>
       <c r="P12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>30</v>
       </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
@@ -8701,14 +8690,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30</v>
       </c>
-      <c r="B14" s="14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
         <v>3</v>
       </c>
       <c r="D14" t="s">
@@ -8728,14 +8717,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
-      <c r="B15" s="14">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
         <v>7</v>
       </c>
       <c r="D15" t="s">
@@ -8755,14 +8744,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
-      <c r="B16" s="14">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
         <v>8</v>
       </c>
       <c r="D16" t="s">
@@ -8782,14 +8771,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30</v>
       </c>
-      <c r="B17" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
         <v>9</v>
       </c>
       <c r="D17" t="s">
@@ -8809,14 +8798,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>46</v>
       </c>
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
         <v>7</v>
       </c>
       <c r="D18" t="s">
@@ -8836,14 +8825,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
         <v>2</v>
       </c>
       <c r="D19" t="s">
@@ -8863,14 +8852,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
-      <c r="B20" s="14">
-        <v>1</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
         <v>4</v>
       </c>
       <c r="D20" t="s">
@@ -8890,14 +8879,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>27</v>
       </c>
-      <c r="B21" s="14">
-        <v>1</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
         <v>5</v>
       </c>
       <c r="D21" t="s">
@@ -8917,14 +8906,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
-      <c r="B22" s="14">
-        <v>1</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13">
         <v>6</v>
       </c>
       <c r="D22" t="s">
@@ -8944,14 +8933,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
-      <c r="B23" s="14">
-        <v>1</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
         <v>2</v>
       </c>
       <c r="D23" t="s">
@@ -8971,14 +8960,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>29</v>
       </c>
-      <c r="B24" s="14">
-        <v>1</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13">
         <v>3</v>
       </c>
       <c r="D24" t="s">
@@ -8998,14 +8987,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
-      <c r="B25" s="14">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
         <v>1</v>
       </c>
       <c r="D25" t="s">
@@ -9015,21 +9004,21 @@
         <v>621</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="N25" s="15" t="s">
+      <c r="N25" t="s">
         <v>66</v>
       </c>
       <c r="O25" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="14">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13">
         <v>5</v>
       </c>
       <c r="D26" t="s">
@@ -9049,14 +9038,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="14">
-        <v>1</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
         <v>6</v>
       </c>
       <c r="D27" t="s">
@@ -9076,14 +9065,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="14">
-        <v>1</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13">
         <v>7</v>
       </c>
       <c r="D28" t="s">
@@ -9103,14 +9092,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="14">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13">
         <v>9</v>
       </c>
       <c r="D29" t="s">
@@ -9133,14 +9122,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="14">
-        <v>1</v>
-      </c>
-      <c r="C30" s="14">
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13">
         <v>10</v>
       </c>
       <c r="D30" t="s">
@@ -9160,475 +9149,475 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="10:10">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="10:10">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="10:10">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="10:10">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="10:10">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="10:10">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="10:10">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="10:10">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="10:10">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="10:10">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="10:10">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="10:10">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="10:10">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="10:10">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="10:10">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="10:10">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="10:10">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="10:10">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="10:10">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="10:10">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="10:10">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="10:10">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="10:10">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="10:10">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="10:10">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="10:10">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="10:10">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="10:10">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="10:10">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="10:10">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="10:10">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="10:10">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="10:10">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="10:10">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="10:10">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="10:10">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="10:10">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="10:10">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="10:10">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="10:10">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="10:10">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="10:10">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="10:10">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="10:10">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="10:10">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="10:10">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="10:10">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="10:10">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="10:10">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="10:10">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="10:10">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="10:10">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="10:10">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="10:10">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="10:10">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="10:10">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="10:10">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="10:10">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="10:10">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="10:10">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="10:10">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="10:10">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="10:10">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="10:10">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="10:10">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="10:10">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="10:10">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="10:10">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="10:10">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="10:10">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="10:10">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="10:10">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="10:10">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="10:10">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="10:10">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="10:10">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="10:10">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="10:10">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="10:10">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="10:10">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="10:10">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="10:10">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="10:10">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="10:10">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="10:10">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="10:10">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="10:10">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="10:10">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="10:10">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="10:10">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="10:10">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="10:10">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="10:10">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="10:10">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="10:10">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="10:10">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="10:10">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="10:10">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="10:10">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="10:10">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="10:10">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="10:10">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="10:10">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="10:10">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="10:10">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="10:10">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="10:10">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="10:10">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="10:10">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="10:10">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="10:10">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J187" s="2"/>
     </row>
   </sheetData>
@@ -9691,13 +9680,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
@@ -9711,7 +9700,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -9725,7 +9714,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -9739,7 +9728,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>82</v>
@@ -9751,7 +9740,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -9759,7 +9748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -9770,7 +9759,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -9781,7 +9770,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
@@ -9792,12 +9781,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -9805,7 +9794,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -9813,7 +9802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -9821,7 +9810,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>75</v>
       </c>
@@ -9829,7 +9818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
@@ -9837,17 +9826,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -9869,26 +9858,26 @@
       <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D1" t="s">
@@ -9907,11 +9896,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2">
@@ -9933,11 +9922,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -9959,11 +9948,11 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -9985,11 +9974,11 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -10011,133 +10000,133 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="35" customFormat="1">
-      <c r="A6" s="35">
+    <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>28</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="28" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="35" customFormat="1">
-      <c r="A7" s="35">
+    <row r="7" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>28</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="28" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="35" customFormat="1">
-      <c r="A8" s="35">
+    <row r="8" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>28</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="28" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="35" customFormat="1">
-      <c r="A9" s="35">
+    <row r="9" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>28</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="28" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="35" customFormat="1">
-      <c r="A10" s="35">
+    <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>46</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="28" t="s">
         <v>348</v>
       </c>
     </row>
@@ -10161,29 +10150,29 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" t="s">
         <v>291</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -10198,7 +10187,7 @@
       <c r="G1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="14" t="s">
         <v>119</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -10214,14 +10203,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="24">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
@@ -10252,23 +10241,23 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="18" customFormat="1">
-      <c r="A3" s="18">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>23</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" t="s">
         <v>125</v>
       </c>
       <c r="G3" s="8">
@@ -10277,7 +10266,7 @@
       <c r="H3" s="8">
         <v>144123</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" t="s">
         <v>306</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -10286,27 +10275,27 @@
       <c r="K3" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="18" customFormat="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>31</v>
       </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" t="s">
         <v>125</v>
       </c>
       <c r="G4" s="8">
@@ -10315,7 +10304,7 @@
       <c r="H4" s="8">
         <v>115555</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" t="s">
         <v>304</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -10324,27 +10313,27 @@
       <c r="K4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="18" customFormat="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>31</v>
       </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" t="s">
         <v>125</v>
       </c>
       <c r="G5" s="8">
@@ -10353,7 +10342,7 @@
       <c r="H5" s="8">
         <v>50000</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" t="s">
         <v>304</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -10362,27 +10351,27 @@
       <c r="K5" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="18" customFormat="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>31</v>
       </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" t="s">
         <v>125</v>
       </c>
       <c r="G6" s="8">
@@ -10391,7 +10380,7 @@
       <c r="H6" s="8">
         <v>200000</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" t="s">
         <v>304</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -10400,27 +10389,27 @@
       <c r="K6" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="18" customFormat="1">
-      <c r="A7" s="18">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>31</v>
       </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" t="s">
         <v>125</v>
       </c>
       <c r="G7" s="8">
@@ -10429,27 +10418,27 @@
       <c r="H7" s="8">
         <v>200000</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" t="s">
         <v>388</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D8">
@@ -10474,14 +10463,14 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>28</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D9">
@@ -10506,14 +10495,14 @@
         <v>431</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D10">
@@ -10538,14 +10527,14 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D11">
@@ -10570,14 +10559,14 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D12">
@@ -10602,14 +10591,14 @@
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>28</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D13">
@@ -10634,14 +10623,14 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>46</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D14">
@@ -10672,14 +10661,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>46</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D15">
@@ -10727,36 +10716,36 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="41"/>
-      <c r="B2" s="17" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" t="s">
         <v>273</v>
       </c>
       <c r="D2" t="s">
@@ -10769,14 +10758,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -10786,14 +10775,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
@@ -10806,14 +10795,14 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
@@ -10823,14 +10812,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
@@ -10840,14 +10829,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
@@ -10857,7 +10846,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -10874,7 +10863,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -10891,7 +10880,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>46</v>
       </c>
@@ -10908,7 +10897,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>46</v>
       </c>
@@ -10925,7 +10914,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -10942,7 +10931,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -10959,7 +10948,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
@@ -10976,7 +10965,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>26</v>
       </c>
@@ -10993,7 +10982,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27</v>
       </c>
@@ -11010,7 +10999,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>27</v>
       </c>
@@ -11027,7 +11016,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>27</v>
       </c>
@@ -11044,7 +11033,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>47</v>
       </c>
@@ -11061,7 +11050,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -11078,7 +11067,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -11095,7 +11084,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -11134,28 +11123,28 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s">
         <v>291</v>
       </c>
       <c r="D1" t="s">
@@ -11180,7 +11169,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11194,7 +11183,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23</v>
       </c>
@@ -11223,7 +11212,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -11252,7 +11241,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -11281,7 +11270,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
@@ -11310,7 +11299,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
@@ -11339,7 +11328,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
@@ -11368,11 +11357,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9">
@@ -11390,18 +11379,18 @@
       <c r="G9" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="20" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10">
@@ -11419,18 +11408,18 @@
       <c r="G10" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="20" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
@@ -11448,18 +11437,18 @@
       <c r="G11" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="20" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>46</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12">
@@ -11477,18 +11466,18 @@
       <c r="G12" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="20" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13">
@@ -11506,21 +11495,21 @@
       <c r="G13" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="20" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>46</v>
       </c>
-      <c r="B14" s="25">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>439</v>
       </c>
       <c r="D14" t="s">
@@ -11535,18 +11524,18 @@
       <c r="G14" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="21" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15">
@@ -11564,18 +11553,18 @@
       <c r="G15" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="20" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="39.6">
+    <row r="16" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16">
@@ -11593,18 +11582,18 @@
       <c r="G16" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="23" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17">
@@ -11622,18 +11611,18 @@
       <c r="G17" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="24" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18">
@@ -11651,18 +11640,18 @@
       <c r="G18" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="20" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19">
@@ -11680,18 +11669,18 @@
       <c r="G19" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="20" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20">
@@ -11709,18 +11698,18 @@
       <c r="G20" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="20" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>27</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21">
@@ -11738,18 +11727,18 @@
       <c r="G21" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="20" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22">
@@ -11767,18 +11756,18 @@
       <c r="G22" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="20" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>47</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23">
@@ -11796,18 +11785,18 @@
       <c r="G23" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="20" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24">
@@ -11825,18 +11814,18 @@
       <c r="G24" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="20" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25">
@@ -11854,18 +11843,18 @@
       <c r="G25" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="20" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26">
@@ -11883,18 +11872,18 @@
       <c r="G26" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="20" t="s">
         <v>627</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="20" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27">
@@ -11912,18 +11901,18 @@
       <c r="G27" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="20" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28">
@@ -11941,10 +11930,10 @@
       <c r="G28" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="20" t="s">
         <v>628</v>
       </c>
     </row>
@@ -11965,70 +11954,70 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
-    <col min="10" max="10" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1796875" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="41"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -12105,7 +12094,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="60">
+    <row r="3" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -12173,7 +12162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="105.6">
+    <row r="4" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -12213,10 +12202,10 @@
       <c r="N4" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" t="s">
         <v>303</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="31" t="s">
         <v>302</v>
       </c>
       <c r="U4" s="6" t="s">
@@ -12235,7 +12224,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="105.6">
+    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -12275,10 +12264,10 @@
       <c r="N5" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" t="s">
         <v>303</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="31" t="s">
         <v>302</v>
       </c>
       <c r="U5" s="6" t="s">
@@ -12297,7 +12286,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="105.6">
+    <row r="6" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -12337,10 +12326,10 @@
       <c r="N6" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" t="s">
         <v>303</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="31" t="s">
         <v>302</v>
       </c>
       <c r="U6" s="6" t="s">
@@ -12359,7 +12348,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="105.6">
+    <row r="7" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -12399,10 +12388,10 @@
       <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" t="s">
         <v>303</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="31" t="s">
         <v>302</v>
       </c>
       <c r="U7" s="6" t="s">
@@ -12421,7 +12410,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="105.6">
+    <row r="8" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -12461,10 +12450,10 @@
       <c r="N8" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" t="s">
         <v>701</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="31" t="s">
         <v>313</v>
       </c>
       <c r="U8" s="6" t="s">
@@ -12483,7 +12472,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="105.6">
+    <row r="9" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -12523,10 +12512,10 @@
       <c r="N9" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" t="s">
         <v>348</v>
       </c>
-      <c r="P9" s="44" t="s">
+      <c r="P9" s="31" t="s">
         <v>313</v>
       </c>
       <c r="U9" s="6" t="s">
@@ -12545,7 +12534,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="105.6">
+    <row r="10" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -12585,10 +12574,10 @@
       <c r="N10" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" t="s">
         <v>699</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="31" t="s">
         <v>596</v>
       </c>
       <c r="U10" s="6" t="s">
@@ -12607,7 +12596,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="105.6">
+    <row r="11" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -12647,10 +12636,10 @@
       <c r="N11" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" t="s">
         <v>700</v>
       </c>
-      <c r="P11" s="44" t="s">
+      <c r="P11" s="31" t="s">
         <v>599</v>
       </c>
       <c r="U11" s="6" t="s">
@@ -12669,7 +12658,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="105.6">
+    <row r="12" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -12709,10 +12698,10 @@
       <c r="N12" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" t="s">
         <v>427</v>
       </c>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="31" t="s">
         <v>426</v>
       </c>
       <c r="U12" s="6" t="s">
@@ -12731,7 +12720,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="195.6">
+    <row r="13" spans="1:26" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -12771,10 +12760,10 @@
       <c r="N13" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" t="s">
         <v>348</v>
       </c>
-      <c r="P13" s="44" t="s">
+      <c r="P13" s="31" t="s">
         <v>313</v>
       </c>
       <c r="U13" s="6" t="s">
@@ -12793,7 +12782,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="105.6">
+    <row r="14" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -12833,10 +12822,10 @@
       <c r="N14" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" t="s">
         <v>348</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="31" t="s">
         <v>313</v>
       </c>
       <c r="U14" s="6" t="s">
@@ -12855,7 +12844,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="75.599999999999994">
+    <row r="15" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -12895,10 +12884,10 @@
       <c r="N15" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" t="s">
         <v>348</v>
       </c>
-      <c r="P15" s="44" t="s">
+      <c r="P15" s="31" t="s">
         <v>313</v>
       </c>
       <c r="U15" s="6" t="s">
@@ -12917,7 +12906,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="105.6">
+    <row r="16" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>633</v>
       </c>
@@ -12957,10 +12946,10 @@
       <c r="N16" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" t="s">
         <v>348</v>
       </c>
-      <c r="P16" s="44" t="s">
+      <c r="P16" s="31" t="s">
         <v>313</v>
       </c>
       <c r="U16" s="6" t="s">
@@ -12979,7 +12968,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="105">
+    <row r="17" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>633</v>
       </c>
@@ -13047,7 +13036,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="105">
+    <row r="18" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>633</v>
       </c>
@@ -13115,7 +13104,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="105.6">
+    <row r="19" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>633</v>
       </c>
@@ -13155,10 +13144,10 @@
       <c r="N19" t="s">
         <v>60</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" t="s">
         <v>348</v>
       </c>
-      <c r="P19" s="44" t="s">
+      <c r="P19" s="31" t="s">
         <v>313</v>
       </c>
       <c r="U19" s="6" t="s">
@@ -13177,7 +13166,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13188,7 +13177,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13199,7 +13188,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13210,7 +13199,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -13221,7 +13210,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -13232,7 +13221,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13243,7 +13232,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -13254,7 +13243,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -13265,7 +13254,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -13276,7 +13265,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -13287,7 +13276,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -13298,7 +13287,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -13309,7 +13298,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -13320,7 +13309,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -13331,7 +13320,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -13394,25 +13383,25 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s">
         <v>291</v>
       </c>
       <c r="D1" t="s">
@@ -13428,7 +13417,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -13448,7 +13437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31</v>
       </c>
@@ -13468,7 +13457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
@@ -13488,7 +13477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
@@ -13508,7 +13497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
@@ -13528,11 +13517,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>30</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7">
@@ -13548,11 +13537,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="14">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>28</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8">
@@ -13568,11 +13557,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>28</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9">
@@ -13588,11 +13577,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>28</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
       <c r="C10">
@@ -13608,11 +13597,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="14">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>28</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>4</v>
       </c>
       <c r="C11">
@@ -13628,11 +13617,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="14">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>46</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>1</v>
       </c>
       <c r="C12">
@@ -13648,11 +13637,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="14">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>47</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>1</v>
       </c>
       <c r="C13">
@@ -13668,11 +13657,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>47</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>1</v>
       </c>
       <c r="C14">
@@ -13688,11 +13677,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="14">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>4</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15">
@@ -13708,11 +13697,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="14">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>4</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>1</v>
       </c>
       <c r="C16">
@@ -13728,11 +13717,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>1</v>
       </c>
       <c r="C17">
@@ -13748,11 +13737,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>4</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>1</v>
       </c>
       <c r="C18">
@@ -13793,28 +13782,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A8:A13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s">
         <v>291</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -13827,7 +13816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -13847,7 +13836,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31</v>
       </c>
@@ -13867,7 +13856,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
@@ -13887,7 +13876,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
@@ -13907,7 +13896,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
@@ -13927,11 +13916,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>30</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7">
@@ -13947,11 +13936,11 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>28</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8">
@@ -13967,11 +13956,11 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>28</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9">
@@ -13987,11 +13976,11 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>28</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>2</v>
       </c>
       <c r="C10">
@@ -14007,11 +13996,11 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>28</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>3</v>
       </c>
       <c r="C11">
@@ -14027,11 +14016,11 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="14">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>28</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>3</v>
       </c>
       <c r="C12">
@@ -14047,11 +14036,11 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.6" customHeight="1">
-      <c r="A13" s="14">
+    <row r="13" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>28</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>4</v>
       </c>
       <c r="C13">
@@ -14060,18 +14049,18 @@
       <c r="D13" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="35">
         <v>10000</v>
       </c>
       <c r="F13" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>46</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>1</v>
       </c>
       <c r="C14">
@@ -14087,11 +14076,11 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>47</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15">
@@ -14107,11 +14096,11 @@
         <v>481</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>47</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>1</v>
       </c>
       <c r="C16">
@@ -14127,11 +14116,11 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>1</v>
       </c>
       <c r="C17">
@@ -14147,11 +14136,11 @@
         <v>667</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>4</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>1</v>
       </c>
       <c r="C18">
@@ -14167,11 +14156,11 @@
         <v>668</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="14">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>4</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
       <c r="C19">
@@ -14187,11 +14176,11 @@
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="14">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>4</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>1</v>
       </c>
       <c r="C20">
@@ -14207,11 +14196,11 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="14">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>1</v>
       </c>
       <c r="C21">
@@ -14240,30 +14229,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s">
         <v>291</v>
       </c>
       <c r="D1" t="s">
@@ -14285,7 +14274,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -14311,7 +14300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31</v>
       </c>
@@ -14337,7 +14326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
@@ -14363,7 +14352,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
@@ -14389,7 +14378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
@@ -14415,7 +14404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
@@ -14441,7 +14430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -14467,7 +14456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>28</v>
       </c>
@@ -14493,7 +14482,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
@@ -14519,7 +14508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
@@ -14545,7 +14534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>46</v>
       </c>
@@ -14571,7 +14560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>47</v>
       </c>
@@ -14597,7 +14586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>47</v>
       </c>
@@ -14623,7 +14612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -14649,7 +14638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -14675,7 +14664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -14701,7 +14690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -14749,6 +14738,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A8F4FDE63F23240996C0B5ED71CAB02" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61b2ee7a38442529347de99e33b69841">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc14db02-3d39-436b-9056-63d1dbe054e8" xmlns:ns3="5ed3fcfa-dd51-4f96-90c6-6669337cd654" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="405649729e347460199c909c216f19f3" ns2:_="" ns3:_="">
     <xsd:import namespace="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
@@ -14943,34 +14952,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BFD85F-A260-4B68-8370-89136DBE3129}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37988534-FF4F-46F8-84AB-48CC87B76A1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C7C7C0F-FE5C-4F1B-9A47-80D1E428EC66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C7C7C0F-FE5C-4F1B-9A47-80D1E428EC66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37988534-FF4F-46F8-84AB-48CC87B76A1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BFD85F-A260-4B68-8370-89136DBE3129}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
+++ b/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8AB57-42F8-488B-B9CA-A2B4B4F928CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5273A49B-FC7A-4C1A-AF37-D6C986A3C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" tabRatio="706" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" tabRatio="706" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="ADCC_Txn_Details" sheetId="5" r:id="rId3"/>
     <sheet name="Cross_Border" sheetId="11" r:id="rId4"/>
     <sheet name="CrossBorder_Bene_Details " sheetId="12" r:id="rId5"/>
-    <sheet name="Police_Letter" sheetId="6" r:id="rId6"/>
-    <sheet name="Police_Letter_Suspected_Nature" sheetId="7" r:id="rId7"/>
-    <sheet name="Police_Letter_Txn_Details" sheetId="9" r:id="rId8"/>
-    <sheet name="Police_Letter_Type_Of_Deception" sheetId="8" r:id="rId9"/>
-    <sheet name="CrossBorder_Txn_Details" sheetId="13" r:id="rId10"/>
+    <sheet name="CrossBorder_Txn_Details" sheetId="13" r:id="rId6"/>
+    <sheet name="Police_Letter" sheetId="6" r:id="rId7"/>
+    <sheet name="Police_Letter_Suspected_Nature" sheetId="7" r:id="rId8"/>
+    <sheet name="Police_Letter_Txn_Details" sheetId="9" r:id="rId9"/>
+    <sheet name="Police_Letter_Type_Of_Deception" sheetId="8" r:id="rId10"/>
     <sheet name="Search_Warrant" sheetId="2" r:id="rId11"/>
     <sheet name="UAR" sheetId="10" r:id="rId12"/>
     <sheet name="UAR_Involved_Parties" sheetId="14" r:id="rId13"/>
@@ -37,10 +37,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">UAR!$A$1:$AR$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2595,7 +2606,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2654,6 +2665,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2663,7 +2675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3159,13 +3171,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="34"/>
       <c r="D1" t="s">
         <v>99</v>
       </c>
@@ -3174,7 +3186,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3664,26 +3676,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -3694,22 +3706,25 @@
         <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3719,623 +3734,436 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>351</v>
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>351</v>
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F9">
-        <v>122222221</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>311</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F10">
-        <v>122222221</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F11">
-        <v>122222221</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>46</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>439</v>
-      </c>
       <c r="D13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>458</v>
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1">
+        <v>47</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>455</v>
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>311</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>455</v>
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>315</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>315</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F22" t="s">
-        <v>313</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F23">
-        <v>122222221</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F24">
-        <v>122222221</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>311</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>311</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>455</v>
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4344,6 +4172,18 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000INTERNAL</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
+          <x14:formula1>
+            <xm:f>COMMON!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:H2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4388,45 +4228,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="33" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5700,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
@@ -5752,63 +5592,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33" t="s">
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -8262,7 +8102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X187"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
@@ -10713,7 +10553,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10727,21 +10567,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -11119,8 +10959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11570,7 +11410,7 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="36" t="s">
         <v>542</v>
       </c>
       <c r="E16" t="s">
@@ -11947,6 +11787,692 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F9">
+        <v>122222221</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10">
+        <v>122222221</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11">
+        <v>122222221</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F22" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F23">
+        <v>122222221</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F24">
+        <v>122222221</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000INTERNAL</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
@@ -11983,41 +12509,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -13375,7 +13901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -13778,11 +14304,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -14049,7 +14575,7 @@
       <c r="D13" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="32">
         <v>10000</v>
       </c>
       <c r="F13" t="s">
@@ -14225,539 +14751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>483</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>46</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>483</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000INTERNAL</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
-          <x14:formula1>
-            <xm:f>COMMON!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:H2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A8F4FDE63F23240996C0B5ED71CAB02" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61b2ee7a38442529347de99e33b69841">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc14db02-3d39-436b-9056-63d1dbe054e8" xmlns:ns3="5ed3fcfa-dd51-4f96-90c6-6669337cd654" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="405649729e347460199c909c216f19f3" ns2:_="" ns3:_="">
     <xsd:import namespace="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
@@ -14952,26 +14946,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37988534-FF4F-46F8-84AB-48CC87B76A1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
-    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C7C7C0F-FE5C-4F1B-9A47-80D1E428EC66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BFD85F-A260-4B68-8370-89136DBE3129}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14988,4 +14983,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C7C7C0F-FE5C-4F1B-9A47-80D1E428EC66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37988534-FF4F-46F8-84AB-48CC87B76A1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
+++ b/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5273A49B-FC7A-4C1A-AF37-D6C986A3C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D7934-D7F2-4F2C-9D6F-4C668078592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" tabRatio="706" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" tabRatio="706" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -5540,10 +5540,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
+      <selection pane="bottomLeft" activeCell="AD29" sqref="AD29:AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7547,7 +7547,8 @@
       <c r="Y29" s="2"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
-      <c r="AE29" t="s">
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36" t="s">
         <v>60</v>
       </c>
       <c r="AF29" t="s">
@@ -8102,7 +8103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X187"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
@@ -10553,7 +10554,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10959,8 +10960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11791,7 +11792,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+      <selection activeCell="A3" sqref="A3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
+++ b/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D7934-D7F2-4F2C-9D6F-4C668078592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C503FBA-3571-4799-852F-3E72444B710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" tabRatio="706" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="706" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -2666,6 +2666,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2675,7 +2676,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3171,13 +3171,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" t="s">
         <v>99</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4228,45 +4228,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="34" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5540,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="AD29" sqref="AD29:AE29"/>
@@ -5592,63 +5592,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34" t="s">
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -7547,8 +7547,8 @@
       <c r="Y29" s="2"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36" t="s">
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33" t="s">
         <v>60</v>
       </c>
       <c r="AF29" t="s">
@@ -10568,21 +10568,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -11411,7 +11411,7 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="33" t="s">
         <v>542</v>
       </c>
       <c r="E16" t="s">
@@ -12374,7 +12374,7 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="2" t="s">
         <v>632</v>
       </c>
@@ -12398,7 +12398,7 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="2" t="s">
         <v>632</v>
       </c>
@@ -12477,8 +12477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12510,41 +12510,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -14309,8 +14309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14534,7 +14534,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E11" s="8">
         <v>100000</v>
@@ -14554,7 +14554,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E12" s="8">
         <v>100000</v>
@@ -14753,6 +14753,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A8F4FDE63F23240996C0B5ED71CAB02" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61b2ee7a38442529347de99e33b69841">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc14db02-3d39-436b-9056-63d1dbe054e8" xmlns:ns3="5ed3fcfa-dd51-4f96-90c6-6669337cd654" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="405649729e347460199c909c216f19f3" ns2:_="" ns3:_="">
     <xsd:import namespace="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
@@ -14947,15 +14956,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14968,6 +14968,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C7C7C0F-FE5C-4F1B-9A47-80D1E428EC66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BFD85F-A260-4B68-8370-89136DBE3129}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14986,14 +14994,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C7C7C0F-FE5C-4F1B-9A47-80D1E428EC66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37988534-FF4F-46F8-84AB-48CC87B76A1C}">
   <ds:schemaRefs>

--- a/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
+++ b/Raw Input Data/Tool_Input_Excel_v4 - Batch 5_v1 (20250619).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C503FBA-3571-4799-852F-3E72444B710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2741BE9-1231-4C60-9885-6AF9410B0439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="706" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="706" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -1636,6 +1636,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>111-111111-101</t>
@@ -1655,6 +1656,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>666-66666-601</t>
@@ -1674,6 +1676,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> YEUNG KA</t>
@@ -1693,6 +1696,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>CHAN, TAIMAN</t>
@@ -1729,6 +1733,7 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>666-66666-601</t>
@@ -1748,6 +1753,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>YEUNG KAI</t>
@@ -1767,6 +1773,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">CHAN, TAIMAN </t>
@@ -1815,6 +1822,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>XIE PANGAN</t>
@@ -2362,6 +2370,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>XIE PANGAN</t>
@@ -2381,6 +2390,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> CHAN TAI MAN</t>
@@ -2411,6 +2421,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>YEUNG KAI</t>
@@ -2430,6 +2441,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>CHAN TAI MAN</t>
@@ -2527,18 +2539,21 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5540,10 +5555,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="AD29" sqref="AD29:AE29"/>
+      <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8103,7 +8118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X187"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
@@ -14309,8 +14324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14753,12 +14768,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14957,20 +14974,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5ed3fcfa-dd51-4f96-90c6-6669337cd654" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fc14db02-3d39-436b-9056-63d1dbe054e8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C7C7C0F-FE5C-4F1B-9A47-80D1E428EC66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37988534-FF4F-46F8-84AB-48CC87B76A1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
+    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14995,12 +15013,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37988534-FF4F-46F8-84AB-48CC87B76A1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C7C7C0F-FE5C-4F1B-9A47-80D1E428EC66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5ed3fcfa-dd51-4f96-90c6-6669337cd654"/>
-    <ds:schemaRef ds:uri="fc14db02-3d39-436b-9056-63d1dbe054e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>